--- a/study-jvm/doc/object/Mark Word.xlsx
+++ b/study-jvm/doc/object/Mark Word.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
   <si>
     <t>分代年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,50 @@
   </si>
   <si>
     <t>Mark Word（64 bits）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 bit（是否偏向锁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 bit（锁标志位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 it（是否偏向锁）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54 bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +247,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -277,69 +327,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,296 +743,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H24"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="13"/>
+      <c r="D4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="13"/>
+      <c r="D6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="13"/>
+      <c r="D8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="14" t="s">
+    </row>
+    <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13"/>
+      <c r="C20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="28">
         <v>10</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="26" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="28">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="14">
-        <v>25</v>
-      </c>
-      <c r="D18" s="14">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
-      <c r="C19" s="14">
-        <v>54</v>
-      </c>
-      <c r="D19" s="14">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="3">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C2:C4"/>
+  <mergeCells count="18">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -936,65 +1075,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1009,107 +1148,107 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="3">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="3">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="14">
+      <c r="B16" s="7"/>
+      <c r="C16" s="4">
         <v>25</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="4">
         <v>31</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="14">
+      <c r="B17" s="7"/>
+      <c r="C17" s="4">
         <v>54</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1121,18 +1260,18 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1142,56 +1281,57 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="3" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="3">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="3">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="2">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C5:D5"/>
@@ -1200,12 +1340,11 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/study-jvm/doc/object/Mark Word.xlsx
+++ b/study-jvm/doc/object/Mark Word.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>分代年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
   </si>
   <si>
     <t>2 bit（锁标志位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 it（是否偏向锁）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,6 +387,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,13 +399,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,20 +447,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +742,7 @@
   <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -762,68 +758,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="13"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="13"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -835,31 +831,31 @@
       <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="18"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="13"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -867,13 +863,13 @@
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29">
         <v>10</v>
       </c>
     </row>
@@ -881,58 +877,58 @@
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="34" t="s">
+      <c r="G19" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
-      <c r="C20" s="33" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -944,31 +940,31 @@
       <c r="G20" s="5">
         <v>0</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="23"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5" t="s">
         <v>23</v>
       </c>
@@ -978,29 +974,29 @@
       <c r="G22" s="5">
         <v>1</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="28" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1008,12 +1004,12 @@
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="28">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="29">
         <v>10</v>
       </c>
     </row>
@@ -1021,12 +1017,12 @@
       <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="28">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="29">
         <v>11</v>
       </c>
     </row>
